--- a/data/dd.xlsx
+++ b/data/dd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8675"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -61,25 +61,417 @@
   </si>
   <si>
     <t>http://35.215.171.22:5000/bookstore/api/v10/books</t>
+  </si>
+  <si>
+    <t>版位</t>
+  </si>
+  <si>
+    <t>播放站点集</t>
+  </si>
+  <si>
+    <t>翻译后(如有)</t>
+  </si>
+  <si>
+    <t>创意形式</t>
+  </si>
+  <si>
+    <t>尺寸</t>
+  </si>
+  <si>
+    <t>竞价消耗(万元)(当前值)</t>
+  </si>
+  <si>
+    <t>是否可衍生</t>
+  </si>
+  <si>
+    <t>衍生规格</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>微信(朋友圈消息流)</t>
+  </si>
+  <si>
+    <t>常规大图  1:1 5:4 4:5</t>
+  </si>
+  <si>
+    <t>可支持</t>
+  </si>
+  <si>
+    <t>1480/1064</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>960×540</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可衍生横版视频1465</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>video：6~30s</t>
+    </r>
+  </si>
+  <si>
+    <t>微信(标签卡片广告)</t>
+  </si>
+  <si>
+    <t>标签卡片 横版大图 16:9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>横版视频1465</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>video：6~30s</t>
+    </r>
+  </si>
+  <si>
+    <t>微信竖版视频</t>
+  </si>
+  <si>
+    <t>常规视频 9:16</t>
+  </si>
+  <si>
+    <t>基础卡片  横版大图16:9</t>
+  </si>
+  <si>
+    <t>微信朋友圈(朋友圈多图_六图文)</t>
+  </si>
+  <si>
+    <t>常规多图  1:1 2:3 40:71</t>
+  </si>
+  <si>
+    <t>多图，效果待确认</t>
+  </si>
+  <si>
+    <t>常规视频 750×1536</t>
+  </si>
+  <si>
+    <t>微信(视频标签卡片广告)</t>
+  </si>
+  <si>
+    <t>标签卡片 横版视频  16:9</t>
+  </si>
+  <si>
+    <t>微信(朋友圈基础式卡片)</t>
+  </si>
+  <si>
+    <t>基础卡片 横版视频 16:9</t>
+  </si>
+  <si>
+    <t>微信朋友圈(朋友圈多图_四图文)</t>
+  </si>
+  <si>
+    <t>常规多图 1:1 2:3 40:71</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四方形图文，衍生竖版视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可衍生竖版视频1480版位</t>
+    </r>
+  </si>
+  <si>
+    <t>常规视频  4:3</t>
+  </si>
+  <si>
+    <t>可衍生竖版视频1480版位</t>
+  </si>
+  <si>
+    <t>行动卡片横版大图16：9</t>
+  </si>
+  <si>
+    <t>横版视频展示广告(横版视频展示广告)</t>
+  </si>
+  <si>
+    <t>横版视频 16:9</t>
+  </si>
+  <si>
+    <t>微信(小程序激励式视频)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>960×540视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【小程序激励式视频】</t>
+    </r>
+  </si>
+  <si>
+    <t>微信横版视频</t>
+  </si>
+  <si>
+    <t>常规视频16:9</t>
+  </si>
+  <si>
+    <t>微信(小程序浮层式插屏)</t>
+  </si>
+  <si>
+    <t>微信朋友圈(朋友圈多图_三图文)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三方形图文，衍生竖版视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可衍生竖版视频1480版位</t>
+    </r>
+  </si>
+  <si>
+    <t>微信(小程序)</t>
+  </si>
+  <si>
+    <t>640*960 竖版图，可衍生竖版视频1480版位</t>
+  </si>
+  <si>
+    <t>微信(文中图文新样式)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认小尺寸图的衍生视频效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>横版视频1465</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>video：6~30s</t>
+    </r>
+  </si>
+  <si>
+    <t>微信(公众号优雅大图)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -93,37 +485,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,31 +496,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +542,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,23 +590,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +618,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,31 +627,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,158 +823,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -436,20 +833,54 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,6 +896,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,32 +965,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,157 +987,256 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1041,109 +1589,111 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="54.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="9" style="33"/>
+    <col min="2" max="2" width="54.6666666666667" style="33" customWidth="1"/>
+    <col min="3" max="3" width="10.7777777777778" style="33" customWidth="1"/>
+    <col min="4" max="5" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
+      <c r="A11" s="33">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="34" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1169,14 +1719,773 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="41.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="12.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="21.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="63.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.6" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.6" spans="1:10">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="10">
+        <v>311</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="12">
+        <v>145150</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.6" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="10">
+        <v>588</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="12">
+        <v>24399</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="29">
+        <v>589</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15.6" spans="1:10">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1480</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="12">
+        <v>21052</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="29">
+        <v>1064</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15.6" spans="1:10">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10">
+        <v>450</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="12">
+        <v>19704</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="29">
+        <v>452</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15.6" spans="1:10">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10">
+        <v>643</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="12">
+        <v>17426</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15.6" spans="1:10">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1064</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="12">
+        <v>12677</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="28">
+        <v>1480</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15.6" spans="1:10">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10">
+        <v>589</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="12">
+        <v>12422</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:10">
+      <c r="A9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="14">
+        <v>21</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="16">
+        <v>452</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="18">
+        <v>9331</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="30">
+        <v>1480</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:10">
+      <c r="A10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="14">
+        <v>21</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="16">
+        <v>642</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="18">
+        <v>8924</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:10">
+      <c r="A11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14">
+        <v>21</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="16">
+        <v>618</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="18">
+        <v>7175</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:10">
+      <c r="A12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="14">
+        <v>21</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16">
+        <v>263</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="18">
+        <v>5908</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15.6" spans="1:10">
+      <c r="A13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="20">
+        <v>21</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="22">
+        <v>310</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="24">
+        <v>10713</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:10">
+      <c r="A14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="14">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="16">
+        <v>955</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="18">
+        <v>4912</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="30">
+        <v>957</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:10">
+      <c r="A15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="14">
+        <v>21</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="16">
+        <v>929</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="18">
+        <v>9498</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="30">
+        <v>1480</v>
+      </c>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" ht="30" spans="1:10">
+      <c r="A16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="14">
+        <v>21</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="16">
+        <v>559</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="18">
+        <v>5651</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:10">
+      <c r="A17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="14">
+        <v>21</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1465</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="18">
+        <v>2288</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" ht="15.6" spans="1:10">
+      <c r="A18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="14">
+        <v>21</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="16">
+        <v>701</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="18">
+        <v>1458</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:10">
+      <c r="A19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="14">
+        <v>21</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="16">
+        <v>641</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="18">
+        <v>879</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:10">
+      <c r="A20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="14">
+        <v>21</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="16">
+        <v>608</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="18">
+        <v>374</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" spans="1:10">
+      <c r="A21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="14">
+        <v>21</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="16">
+        <v>315</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="18">
+        <v>345</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:10">
+      <c r="A22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="14">
+        <v>21</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="16">
+        <v>841</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="18">
+        <v>236</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="1:10">
+      <c r="A23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="14">
+        <v>21</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="16">
+        <v>646</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="18">
+        <v>203</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:10">
+      <c r="A24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="14">
+        <v>21</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="16">
+        <v>649</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="18">
+        <v>195</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:10">
+      <c r="A25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14">
+        <v>21</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="16">
+        <v>998</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="18">
+        <v>154</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data/dd.xlsx
+++ b/data/dd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -105,72 +105,10 @@
     <t>1480/1064</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>960×540</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可衍生横版视频1465</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>video：6~30s</t>
-    </r>
+    <t>960×540
+图文
+可衍生横版视频1465
+video：6~30s</t>
   </si>
   <si>
     <t>微信(标签卡片广告)</t>
@@ -179,34 +117,8 @@
     <t>标签卡片 横版大图 16:9</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>横版视频1465</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>video：6~30s</t>
-    </r>
+    <t>横版视频1465
+video：6~30s</t>
   </si>
   <si>
     <t>微信竖版视频</t>
@@ -248,34 +160,8 @@
     <t>常规多图 1:1 2:3 40:71</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>四方形图文，衍生竖版视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可衍生竖版视频1480版位</t>
-    </r>
+    <t>四方形图文，衍生竖版视频
+可衍生竖版视频1480版位</t>
   </si>
   <si>
     <t>常规视频  4:3</t>
@@ -296,34 +182,8 @@
     <t>微信(小程序激励式视频)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>960×540视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【小程序激励式视频】</t>
-    </r>
+    <t>960×540视频
+【小程序激励式视频】</t>
   </si>
   <si>
     <t>微信横版视频</t>
@@ -338,92 +198,16 @@
     <t>微信朋友圈(朋友圈多图_三图文)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三方形图文，衍生竖版视频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可衍生竖版视频1480版位</t>
-    </r>
-  </si>
-  <si>
-    <t>微信(小程序)</t>
-  </si>
-  <si>
-    <t>640*960 竖版图，可衍生竖版视频1480版位</t>
+    <t>三方形图文，衍生竖版视频
+可衍生竖版视频1480版位</t>
   </si>
   <si>
     <t>微信(文中图文新样式)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认小尺寸图的衍生视频效果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>横版视频1465</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>video：6~30s</t>
-    </r>
+    <t>确认小尺寸图的衍生视频效果
+横版视频1465
+video：6~30s</t>
   </si>
   <si>
     <t>微信(公众号优雅大图)</t>
@@ -434,12 +218,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -483,7 +267,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,45 +363,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,65 +396,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -639,187 +423,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,6 +669,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -909,17 +708,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,6 +728,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,184 +766,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1163,10 +948,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,12 +969,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1196,22 +978,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,112 +1361,112 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="33"/>
-    <col min="2" max="2" width="54.6666666666667" style="33" customWidth="1"/>
-    <col min="3" max="3" width="10.7777777777778" style="33" customWidth="1"/>
-    <col min="4" max="5" width="9" style="33"/>
+    <col min="1" max="1" width="9" style="30" customWidth="1"/>
+    <col min="2" max="2" width="54.6666666666667" style="30" customWidth="1"/>
+    <col min="3" max="3" width="10.7777777777778" style="30" customWidth="1"/>
+    <col min="4" max="5" width="9" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="33">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="33">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="33">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="33">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="33">
+      <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="33">
+      <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="33">
+      <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="33">
+      <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="33">
+      <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1719,769 +1492,713 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="41.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="12.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="21.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="63.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="41.2222222222222" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.4444444444444" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.7777777777778" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.4444444444444" style="3" customWidth="1"/>
+    <col min="10" max="10" width="63.1111111111111" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:10">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.6" spans="1:10">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" s="1" customFormat="1" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9">
         <v>21</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="C2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11">
         <v>311</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>145150</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.6" spans="1:10">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8">
+    <row r="3" s="1" customFormat="1" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="11">
         <v>588</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="14">
         <v>24399</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="26">
         <v>589</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.6" spans="1:10">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8">
+    <row r="4" s="1" customFormat="1" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="9">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11">
         <v>1480</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="14">
         <v>21052</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="26">
         <v>1064</v>
       </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15.6" spans="1:10">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9">
         <v>21</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11">
         <v>450</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="14">
         <v>19704</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="26">
         <v>452</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.6" spans="1:10">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8">
+    <row r="6" s="1" customFormat="1" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11">
         <v>643</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="14">
         <v>17426</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.6" spans="1:10">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8">
+    <row r="7" s="1" customFormat="1" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="9">
         <v>21</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11">
         <v>1064</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="14">
         <v>12677</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="25">
         <v>1480</v>
       </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15.6" spans="1:10">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11">
         <v>589</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="14">
         <v>12422</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" ht="15.6" spans="1:10">
-      <c r="A9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="16">
         <v>21</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="C9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11">
         <v>452</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="13" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="18">
         <v>9331</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="27">
         <v>1480</v>
       </c>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" ht="15.6" spans="1:10">
-      <c r="A10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="16">
         <v>21</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="C10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11">
         <v>642</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="18">
         <v>8924</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:10">
-      <c r="A11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="14">
+    <row r="11" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="16">
         <v>21</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="C11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="11">
         <v>618</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G11" s="18">
         <v>7175</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" ht="15.6" spans="1:10">
-      <c r="A12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="16">
         <v>21</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="C12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="11">
         <v>263</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="18">
         <v>5908</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="15.6" spans="1:10">
+    <row r="13" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:10">
       <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="20">
         <v>21</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="22">
+      <c r="C13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="11">
         <v>310</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="21">
         <v>10713</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:10">
-      <c r="A14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="14">
+    <row r="14" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="16">
         <v>21</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="C14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="11">
         <v>955</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="22" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="18">
         <v>4912</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="27">
         <v>957</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:10">
-      <c r="A15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="14">
+    <row r="15" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="16">
         <v>21</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="C15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="11">
         <v>929</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G15" s="18">
         <v>9498</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="27">
         <v>1480</v>
       </c>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" ht="30" spans="1:10">
-      <c r="A16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="14">
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:10">
+      <c r="A16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="16">
         <v>21</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="C16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="11">
         <v>559</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="23" t="s">
         <v>53</v>
       </c>
       <c r="G16" s="18">
         <v>5651</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:10">
-      <c r="A17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="14">
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="16">
         <v>21</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="C17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="11">
         <v>1465</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="18">
         <v>2288</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" ht="15.6" spans="1:10">
-      <c r="A18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="14">
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="16">
         <v>21</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="16">
+      <c r="C18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="11">
         <v>701</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="18">
         <v>1458</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="15" t="s">
+      <c r="I18" s="27"/>
+      <c r="J18" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:10">
-      <c r="A19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="14">
+    <row r="19" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="16">
         <v>21</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="C19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="11">
         <v>641</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="18">
         <v>879</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="15" t="s">
+      <c r="I19" s="27"/>
+      <c r="J19" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:10">
-      <c r="A20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="14">
+    <row r="20" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="16">
         <v>21</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="16">
-        <v>608</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="11">
+        <v>646</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="18">
+        <v>203</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="16">
+        <v>21</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="11">
+        <v>649</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="18">
+        <v>195</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="16">
+        <v>21</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="11">
+        <v>841</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="18">
-        <v>374</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" ht="15.6" spans="1:10">
-      <c r="A21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="14">
-        <v>21</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="16">
-        <v>315</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="18">
-        <v>345</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" ht="15.6" spans="1:10">
-      <c r="A22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="14">
-        <v>21</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="16">
-        <v>841</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="18">
         <v>236</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" ht="15.6" spans="1:10">
-      <c r="A23" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="14">
+      <c r="I22" s="27"/>
+      <c r="J22" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" customHeight="1" spans="1:10">
+      <c r="A23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="16">
         <v>21</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="16">
-        <v>646</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="15"/>
+      <c r="C23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="11">
+        <v>998</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="18">
-        <v>203</v>
-      </c>
-      <c r="H23" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" ht="15.6" spans="1:10">
-      <c r="A24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="14">
-        <v>21</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="16">
-        <v>649</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="18">
-        <v>195</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" ht="15.6" spans="1:10">
-      <c r="A25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="14">
-        <v>21</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="16">
-        <v>998</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="18">
-        <v>154</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="15" t="s">
+      <c r="I23" s="27"/>
+      <c r="J23" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2495,14 +2212,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="2" spans="5:5">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
